--- a/SCM_TestExecution.xlsx
+++ b/SCM_TestExecution.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="478">
   <si>
     <t>TESTCASENAME</t>
   </si>
@@ -1469,6 +1469,18 @@
   </si>
   <si>
     <t>2013/11/04 18:29:28 - GC</t>
+  </si>
+  <si>
+    <t>2013/11/04 21:06:03 - FF</t>
+  </si>
+  <si>
+    <t>2013/11/04 21:15:41 - FF</t>
+  </si>
+  <si>
+    <t>2013/11/04 21:33:19 - FF</t>
+  </si>
+  <si>
+    <t>2013/11/04 21:45:09 - FF</t>
   </si>
 </sst>
 </file>
@@ -5750,11 +5762,9 @@
         <v>157</v>
       </c>
       <c r="E112" t="s">
-        <v>473</v>
-      </c>
-      <c r="F112" t="s">
-        <v>159</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="F112"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
